--- a/marginal_utility_result.xlsx
+++ b/marginal_utility_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysnu-my.sharepoint.com/personal/2yunsu_seoul_ac_kr/Documents/글/학교/석사/BI Lab/연구/2023 KSC MRS_RL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/588f6064c0009a36/글/학교/대학원/BI Lab/연구/2023 KSC MRS_RL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{268997BF-CBED-4095-B148-391682830C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED0ADC4-5983-42B1-86A0-223CC1209E86}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{268997BF-CBED-4095-B148-391682830C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4B0AF6-623E-4EFA-BA15-1E84B0685493}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{F430B10C-AAC2-4433-867F-CFDBB1F2002D}"/>
+    <workbookView xWindow="3760" yWindow="4620" windowWidth="19200" windowHeight="11260" xr2:uid="{F430B10C-AAC2-4433-867F-CFDBB1F2002D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>보상 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,11 +113,31 @@
     <t>Step Mean</t>
   </si>
   <si>
-    <t>결과(성공한 에피소드만 집계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과(모든 에피소드 집계)</t>
+    <t>Step Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total utility mean</t>
+  </si>
+  <si>
+    <t>Std.</t>
+  </si>
+  <si>
+    <t>Success rate(%)</t>
+  </si>
+  <si>
+    <t>Step mean</t>
+  </si>
+  <si>
+    <t>저널 실험 결과(성공한 에피소드만 집계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨퍼런스 실험 결과(성공한 에피소드만 집계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨퍼런스 실험 결과(모든 에피소드 집계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,14 +364,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,70 +661,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64CAB41-AAE9-4081-9C24-51668970B52E}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.9</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.7</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.6</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.5</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.4</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.3</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>0.2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -718,45 +734,49 @@
       <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="H3" s="13">
         <v>86.714417777777797</v>
       </c>
-      <c r="G3" s="13">
+      <c r="I3" s="13">
         <v>86.271243010752698</v>
       </c>
-      <c r="H3" s="13">
+      <c r="J3" s="13">
         <v>85.473878260869498</v>
       </c>
-      <c r="I3" s="13">
+      <c r="K3" s="13">
         <v>86.585002197802197</v>
       </c>
-      <c r="J3" s="13">
+      <c r="L3" s="13">
         <v>91.943558620689601</v>
       </c>
-      <c r="K3" s="13">
+      <c r="M3" s="13">
         <v>91.173677419354803</v>
       </c>
-      <c r="L3" s="13">
+      <c r="N3" s="13">
         <v>93.958079999999995</v>
       </c>
-      <c r="M3" s="13">
+      <c r="O3" s="13">
         <v>90.770576623376598</v>
       </c>
-      <c r="N3" s="13">
+      <c r="P3" s="13">
         <v>91.156981818181805</v>
       </c>
-      <c r="O3" s="13">
+      <c r="Q3" s="13">
         <v>91.005386666666595</v>
       </c>
-      <c r="P3" s="13">
-        <f>AVERAGE(G3:O3)</f>
+      <c r="R3" s="13">
+        <f>AVERAGE(I3:Q3)</f>
         <v>89.815376068632645</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="S3" s="13">
+        <f>AVERAGE(H3:Q3)</f>
+        <v>89.505280239547147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -767,382 +787,410 @@
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13">
+      <c r="H4" s="13">
         <v>2.0357908646136602</v>
       </c>
-      <c r="G4" s="13">
+      <c r="I4" s="13">
         <v>2.0764941504827901</v>
       </c>
-      <c r="H4" s="13">
+      <c r="J4" s="13">
         <v>2.1480527076360598</v>
       </c>
-      <c r="I4" s="13">
+      <c r="K4" s="13">
         <v>2.0475125621855601</v>
       </c>
-      <c r="J4" s="13">
+      <c r="L4" s="13">
         <v>1.47683258453983</v>
       </c>
-      <c r="K4" s="13">
+      <c r="M4" s="13">
         <v>1.5709048142659201</v>
       </c>
-      <c r="L4" s="13">
+      <c r="N4" s="13">
         <v>1.1832159566199201</v>
       </c>
-      <c r="M4" s="13">
+      <c r="O4" s="13">
         <v>1.6196841122196</v>
       </c>
-      <c r="N4" s="13">
+      <c r="P4" s="13">
         <v>1.5703213336477</v>
       </c>
-      <c r="O4" s="13">
+      <c r="Q4" s="13">
         <v>1.59164485150844</v>
       </c>
-      <c r="P4" s="13">
-        <f>AVERAGE(G4:O4)</f>
+      <c r="R4" s="13">
+        <f>AVERAGE(I4:Q4)</f>
         <v>1.6982958970117576</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="S4" s="13">
+        <f t="shared" ref="S4:S6" si="0">AVERAGE(H4:Q4)</f>
+        <v>1.7320453937719478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B11" si="0">$B$1*($B$2)^(A5-1)</f>
+        <f t="shared" ref="B5:B11" si="1">$B$1*($B$2)^(A5-1)</f>
         <v>8</v>
       </c>
       <c r="C5" s="5">
         <f>C4+B5</f>
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>93</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>92</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>91</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>58</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>62</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>90</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>76</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>87</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="R5" s="13">
+        <f t="shared" ref="R5:R6" si="2">AVERAGE(I5:Q5)</f>
+        <v>78.777777777777771</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="0"/>
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000012</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C11" si="3">C5+B6</f>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>30.066666666666599</v>
+      </c>
+      <c r="I6">
+        <v>29.1505376344086</v>
+      </c>
+      <c r="J6">
+        <v>35.630434782608603</v>
+      </c>
+      <c r="K6">
+        <v>35.120879120879103</v>
+      </c>
+      <c r="L6">
+        <v>41.931034482758598</v>
+      </c>
+      <c r="M6">
+        <v>39.5</v>
+      </c>
+      <c r="N6">
+        <v>42.344444444444399</v>
+      </c>
+      <c r="O6">
+        <v>45.644736842105203</v>
+      </c>
+      <c r="P6">
+        <v>43.287356321838999</v>
+      </c>
+      <c r="Q6">
+        <v>44.7</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="2"/>
+        <v>39.701047069893725</v>
+      </c>
+      <c r="S6" s="13">
         <f t="shared" si="0"/>
-        <v>6.4000000000000012</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" ref="C6:C11" si="1">C5+B6</f>
-        <v>24.400000000000002</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>30.066666666666599</v>
-      </c>
-      <c r="G6">
-        <v>29.1505376344086</v>
-      </c>
-      <c r="H6">
-        <v>35.630434782608603</v>
-      </c>
-      <c r="I6">
-        <v>35.120879120879103</v>
-      </c>
-      <c r="J6">
-        <v>41.931034482758598</v>
-      </c>
-      <c r="K6">
-        <v>39.5</v>
-      </c>
-      <c r="L6">
-        <v>42.344444444444399</v>
-      </c>
-      <c r="M6">
-        <v>45.644736842105203</v>
-      </c>
-      <c r="N6">
-        <v>43.287356321838999</v>
-      </c>
-      <c r="O6">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+        <v>38.737609029571011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.120000000000001</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29.520000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0960000000000019</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.616000000000007</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2768000000000019</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.892800000000008</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.9</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.8</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.7</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.6</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.5</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.4</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.3</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.1</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6214400000000015</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.514240000000008</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="H10" s="13">
         <v>85.539743999999999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="I10" s="13">
         <v>85.530944000000005</v>
       </c>
-      <c r="H10" s="13">
+      <c r="J10" s="13">
         <v>85.028319999999994</v>
       </c>
-      <c r="I10" s="13">
+      <c r="K10" s="13">
         <v>86.112959999999902</v>
       </c>
-      <c r="J10" s="13">
+      <c r="L10" s="13">
         <v>87.476224000000002</v>
       </c>
-      <c r="K10" s="13">
+      <c r="M10" s="13">
         <v>88.712288000000001</v>
       </c>
-      <c r="L10" s="13">
+      <c r="N10" s="13">
         <v>93.168992000000003</v>
       </c>
-      <c r="M10" s="13">
+      <c r="O10" s="13">
         <v>88.729664</v>
       </c>
-      <c r="N10" s="13">
+      <c r="P10" s="13">
         <v>90.078944000000007</v>
       </c>
-      <c r="O10" s="13">
+      <c r="Q10" s="13">
         <v>87.816959999999995</v>
       </c>
-      <c r="P10" s="13">
-        <f>AVERAGE(G10:O10)</f>
+      <c r="R10" s="13">
+        <f>AVERAGE(I10:Q10)</f>
         <v>88.072810666666655</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0971520000000017</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.611392000000009</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="13">
+      <c r="H11" s="13">
         <v>2.0391113260437699</v>
       </c>
-      <c r="G11" s="13">
+      <c r="I11" s="13">
         <v>2.0746324975763701</v>
       </c>
-      <c r="H11" s="13">
+      <c r="J11" s="13">
         <v>2.1435018077902299</v>
       </c>
-      <c r="I11" s="13">
+      <c r="K11" s="13">
         <v>2.0376441666787599</v>
       </c>
-      <c r="J11" s="13">
+      <c r="L11" s="13">
         <v>1.4846527371745799</v>
       </c>
-      <c r="K11" s="13">
+      <c r="M11" s="13">
         <v>1.5436644713149199</v>
       </c>
-      <c r="L11" s="13">
+      <c r="N11" s="13">
         <v>1.1912598373151</v>
       </c>
-      <c r="M11" s="13">
+      <c r="O11" s="13">
         <v>1.5893316205248</v>
       </c>
-      <c r="N11" s="13">
+      <c r="P11" s="13">
         <v>1.5491106319433701</v>
       </c>
-      <c r="O11" s="13">
+      <c r="Q11" s="13">
         <v>1.5278232063952899</v>
       </c>
-      <c r="P11" s="13">
-        <f>AVERAGE(G11:O11)</f>
+      <c r="R11" s="13">
+        <f>AVERAGE(I11:Q11)</f>
         <v>1.6824023307459353</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
-      <c r="E12" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>90</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>93</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>92</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>91</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>58</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>62</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>90</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>76</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>87</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
-      <c r="E13" t="s">
+      <c r="R12" s="13">
+        <f t="shared" ref="R12:R13" si="4">AVERAGE(I12:Q12)</f>
+        <v>78.777777777777771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>30.066666666666599</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>29.1505376344086</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>35.630434782608603</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>35.120879120879103</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>41.931034482758598</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>39.5</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>42.344444444444399</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>45.644736842105203</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>43.287356321838999</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="R13" s="13">
+        <f t="shared" si="4"/>
+        <v>39.701047069893725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>13</v>
@@ -1156,8 +1204,11 @@
       <c r="E15" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1228,41 @@
         <f>MAX(D16:D18)</f>
         <v>97.600000000000009</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>0.7</v>
+      </c>
+      <c r="L16">
+        <v>0.6</v>
+      </c>
+      <c r="M16">
+        <v>0.5</v>
+      </c>
+      <c r="N16">
+        <v>0.4</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1279,45 @@
         <v>95.04</v>
       </c>
       <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>86.71</v>
+      </c>
+      <c r="I17">
+        <v>86.27</v>
+      </c>
+      <c r="J17">
+        <v>85.47</v>
+      </c>
+      <c r="K17">
+        <v>86.59</v>
+      </c>
+      <c r="L17">
+        <v>91.94</v>
+      </c>
+      <c r="M17">
+        <v>91.17</v>
+      </c>
+      <c r="N17">
+        <v>93.96</v>
+      </c>
+      <c r="O17">
+        <v>90.77</v>
+      </c>
+      <c r="P17">
+        <v>91.15</v>
+      </c>
+      <c r="Q17">
+        <v>91</v>
+      </c>
+      <c r="R17" s="13">
+        <f>AVERAGE(I17:Q17)</f>
+        <v>89.813333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
@@ -1213,8 +1334,45 @@
         <v>87.232000000000014</v>
       </c>
       <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I18">
+        <v>2.08</v>
+      </c>
+      <c r="J18">
+        <v>2.15</v>
+      </c>
+      <c r="K18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L18">
+        <v>1.48</v>
+      </c>
+      <c r="M18">
+        <v>1.57</v>
+      </c>
+      <c r="N18">
+        <v>1.18</v>
+      </c>
+      <c r="O18">
+        <v>1.62</v>
+      </c>
+      <c r="P18">
+        <v>1.57</v>
+      </c>
+      <c r="Q18">
+        <v>1.59</v>
+      </c>
+      <c r="R18" s="13">
+        <f>AVERAGE(I18:Q18)</f>
+        <v>1.6988888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
@@ -1229,8 +1387,45 @@
         <f>C10+C10</f>
         <v>79.028480000000016</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>93</v>
+      </c>
+      <c r="J19">
+        <v>92</v>
+      </c>
+      <c r="K19">
+        <v>91</v>
+      </c>
+      <c r="L19">
+        <v>58</v>
+      </c>
+      <c r="M19">
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <v>90</v>
+      </c>
+      <c r="O19">
+        <v>76</v>
+      </c>
+      <c r="P19">
+        <v>87</v>
+      </c>
+      <c r="Q19">
+        <v>60</v>
+      </c>
+      <c r="R19" s="13">
+        <f t="shared" ref="R19:R20" si="5">AVERAGE(I19:Q19)</f>
+        <v>78.777777777777771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1245,6 +1440,43 @@
       <c r="D20">
         <f>C10+C10</f>
         <v>79.028480000000016</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>30.07</v>
+      </c>
+      <c r="I20">
+        <v>29.15</v>
+      </c>
+      <c r="J20">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="K20">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="L20">
+        <v>41.93</v>
+      </c>
+      <c r="M20">
+        <v>39.5</v>
+      </c>
+      <c r="N20">
+        <v>42.34</v>
+      </c>
+      <c r="O20">
+        <v>45.64</v>
+      </c>
+      <c r="P20">
+        <v>43.29</v>
+      </c>
+      <c r="Q20">
+        <v>44.7</v>
+      </c>
+      <c r="R20" s="13">
+        <f t="shared" si="5"/>
+        <v>39.700000000000003</v>
       </c>
     </row>
   </sheetData>
